--- a/暑假任务表.xlsx
+++ b/暑假任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t xml:space="preserve">
 未完成任务:不影响标黄
@@ -102,10 +102,13 @@
     <t>颜色、数字识别模块</t>
   </si>
   <si>
+    <t>16天</t>
+  </si>
+  <si>
+    <t>鉴别敌我车辆及类型</t>
+  </si>
+  <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>鉴别敌我车辆及类型</t>
   </si>
   <si>
     <t>37天</t>
@@ -125,13 +128,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,7 +144,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,36 +159,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +196,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -207,17 +228,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,80 +249,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,12 +314,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,169 +464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,7 +593,81 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -640,227 +687,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -892,32 +865,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -931,54 +904,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1245,22 +1218,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="4" width="13.25" customWidth="1"/>
     <col min="5" max="5" width="36.25" customWidth="1"/>
-    <col min="6" max="6" width="23.0833333333333" customWidth="1"/>
-    <col min="8" max="8" width="13.4166666666667" customWidth="1"/>
-    <col min="9" max="9" width="8.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.0803571428571" customWidth="1"/>
+    <col min="8" max="8" width="13.4196428571429" customWidth="1"/>
+    <col min="9" max="9" width="8.66964285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1372,16 +1345,16 @@
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="14">
         <v>44022</v>
       </c>
       <c r="I7" s="19"/>
@@ -1392,71 +1365,71 @@
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="11">
-        <v>44025</v>
+      <c r="G8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="14">
+        <v>44043</v>
       </c>
       <c r="I8" s="19"/>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:9">
       <c r="A9" s="5"/>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="16">
+      <c r="H9" s="17">
         <v>44063</v>
       </c>
       <c r="I9" s="20"/>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:9">
       <c r="A10" s="5"/>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="15" t="s">
+      <c r="E10" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="G10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="17">
         <v>44080</v>
       </c>
       <c r="I10" s="20"/>
@@ -1480,7 +1453,7 @@
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A1:I4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
